--- a/biology/Botanique/Albuca/Albuca.xlsx
+++ b/biology/Botanique/Albuca/Albuca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albuca est un genre de plantes à fleurs herbacées monocotylédones de la famille des Asparagaceae, comprenant entre cent et deux-cent espèces originaires d'Afrique et de la péninsule arabique.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des herbacées vivaces mésophytes aux feuilles parfois fanées au moment de la floraison. Les feuilles sont toutes basales, souvent en rosette. Elles présentent un bulbe, entouré d'une tunique écailleuse ou membraneuse, généralement de nombreux bulbilles. Les feuilles sont simples, alternes, spiralées, sessiles et engainantes. Les gaines des feuilles ont les bords libres. Le limbe foliaire est entier, plat ou solide, térébré, linéaire, ou lancéolé, ou ovale, ou orbiculaire. Les nervures sont parallèles, sans nervures transversales. Les feuilles sont sans stipules. Il n'y a ni poils, ni nectaires extra-floraux, ni épaississement secondaire de la tige[1].
-Appareil reproducteur
-Ce sont des plantes hermaphrodites. Les fleurs sont regroupées en racèmes terminaux, munis d'un pédoncule sans feuille en forme de bractée, dépassant largement les feuilles. Les fleurs sont pédicellées (courtes ou mesurant jusqu'à 7 cm de long), présentant une bractéole par fleur, ne dépassant pas les pédicelles, larges à la base, longues pointes effilées), ébracétées, petites ou moyennes, régulières, tricéphales, cycliques, pentacycliques. Le tube du périgone peut être présent ou absent. Le périanthe est composé de six tépales, en deux verticilles, isomères, pétaloïdes, similaires dans les deux verticilles, ou différents dans les deux verticaux, blancs à jaunes, ou verts à jaunes (avec une bande médiane verte)[1].
-L'androcée comporte trois ou six étamines (six en deux verticilles) libres du périanthe, ou adnés au tube. Les filets des staminodes externes sont environ aussi longs que les étamines internes, libres les uns des autres, à deux verticilles, ou à un seul (parfois). Il y a trois staminodes lorsque le verticille externe est stérile, réduit ou absent, aucune lorsque le verticille externe est fertile. Les étamines sont de forme nettement dissemblable (lorsque le verticille externe est stérile, les anthères peuvent être minuscules ou absentes). Les filets sont appendiculés ou non appendiculés. Les anthères sont dorsifixes, polyvalentes, déhiscentes par des fentes longitudinales, introrses, tétrasporangées[1].
-Le gynécée comporte trois carpelles. Le pistil est à trois cellules. Les carpelles sont isomères du périanthe. Le gynécée est syncarpique, eu-syncarpique, supérieur. L'ovaire est pluriloculaire, sessile. Le style est unique, atténué à partir de l'ovaire, ou d'une dépression au sommet de l'ovaire, apical. Les stigmates, capitonnés, se divisent en un ou trois lobes. La placentation est axile. Les ovules sont au nombre de 20 à 50 par locule (nombreux), arillés, ou non arillés, anatropes[1].
-Le fruit est une capsule non charnue et déhiscente, généralement loculicide ou septicide, contenant 20 à 100 graines (plusieurs par cellule). Les graines présentent un endosperme huileux. L'embryon est droit ou incurvé. Le testa est incrusté de phytomélane, ou sans phytomélane[1]. 
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des herbacées vivaces mésophytes aux feuilles parfois fanées au moment de la floraison. Les feuilles sont toutes basales, souvent en rosette. Elles présentent un bulbe, entouré d'une tunique écailleuse ou membraneuse, généralement de nombreux bulbilles. Les feuilles sont simples, alternes, spiralées, sessiles et engainantes. Les gaines des feuilles ont les bords libres. Le limbe foliaire est entier, plat ou solide, térébré, linéaire, ou lancéolé, ou ovale, ou orbiculaire. Les nervures sont parallèles, sans nervures transversales. Les feuilles sont sans stipules. Il n'y a ni poils, ni nectaires extra-floraux, ni épaississement secondaire de la tige.
 </t>
         </is>
       </c>
@@ -545,12 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le genre est indigène dans toute l'Afrique, dont Madagascar, et en Arabie. Quelques espèces se sont naturalisées en Arkansas, sur l'archipel Juan Fernández, dans le Mexique central, dans le golfe du Mexique, à Sainte-Hélène et en Australie occidentale[2]. 
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes hermaphrodites. Les fleurs sont regroupées en racèmes terminaux, munis d'un pédoncule sans feuille en forme de bractée, dépassant largement les feuilles. Les fleurs sont pédicellées (courtes ou mesurant jusqu'à 7 cm de long), présentant une bractéole par fleur, ne dépassant pas les pédicelles, larges à la base, longues pointes effilées), ébracétées, petites ou moyennes, régulières, tricéphales, cycliques, pentacycliques. Le tube du périgone peut être présent ou absent. Le périanthe est composé de six tépales, en deux verticilles, isomères, pétaloïdes, similaires dans les deux verticilles, ou différents dans les deux verticaux, blancs à jaunes, ou verts à jaunes (avec une bande médiane verte).
+L'androcée comporte trois ou six étamines (six en deux verticilles) libres du périanthe, ou adnés au tube. Les filets des staminodes externes sont environ aussi longs que les étamines internes, libres les uns des autres, à deux verticilles, ou à un seul (parfois). Il y a trois staminodes lorsque le verticille externe est stérile, réduit ou absent, aucune lorsque le verticille externe est fertile. Les étamines sont de forme nettement dissemblable (lorsque le verticille externe est stérile, les anthères peuvent être minuscules ou absentes). Les filets sont appendiculés ou non appendiculés. Les anthères sont dorsifixes, polyvalentes, déhiscentes par des fentes longitudinales, introrses, tétrasporangées.
+Le gynécée comporte trois carpelles. Le pistil est à trois cellules. Les carpelles sont isomères du périanthe. Le gynécée est syncarpique, eu-syncarpique, supérieur. L'ovaire est pluriloculaire, sessile. Le style est unique, atténué à partir de l'ovaire, ou d'une dépression au sommet de l'ovaire, apical. Les stigmates, capitonnés, se divisent en un ou trois lobes. La placentation est axile. Les ovules sont au nombre de 20 à 50 par locule (nombreux), arillés, ou non arillés, anatropes.
+Le fruit est une capsule non charnue et déhiscente, généralement loculicide ou septicide, contenant 20 à 100 graines (plusieurs par cellule). Les graines présentent un endosperme huileux. L'embryon est droit ou incurvé. Le testa est incrusté de phytomélane, ou sans phytomélane. 
 </t>
         </is>
       </c>
@@ -576,14 +597,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est indigène dans toute l'Afrique, dont Madagascar, et en Arabie. Quelques espèces se sont naturalisées en Arkansas, sur l'archipel Juan Fernández, dans le Mexique central, dans le golfe du Mexique, à Sainte-Hélène et en Australie occidentale. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albuca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albuca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit en 1762 par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature botanique moderne Species Plantarum[3]. Albuca major est l'espèce type. Désormais classé dans la famille des Asparagaceae, sous-famille des Scilloideae, tribu des Ornithogaleae[4], Albuca a auparavant été classé dans les Hyacinthaceae ou dans les Liliaceae[1].
-Le nom générique Albuca vient du latin pour « blanc », en référence aux fleurs blanches[1]. 
-Selon Plants of the World online (POWO)                (12 juin 2022)[2], les 17 genres suivants sont fusionnés dans le genre Albuca et sont donc synonymes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit en 1762 par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature botanique moderne Species Plantarum. Albuca major est l'espèce type. Désormais classé dans la famille des Asparagaceae, sous-famille des Scilloideae, tribu des Ornithogaleae, Albuca a auparavant été classé dans les Hyacinthaceae ou dans les Liliaceae.
+Le nom générique Albuca vient du latin pour « blanc », en référence aux fleurs blanches. 
+Selon Plants of the World online (POWO)                (12 juin 2022), les 17 genres suivants sont fusionnés dans le genre Albuca et sont donc synonymes :
 Albugoides Medik.
 Ardernia Salisb.
 Battandiera Maire
@@ -601,38 +657,40 @@
 Taeniola Salisb.
 Trimelopter Raf.
 Urophyllon Salisb.
-Enfin, Albuca est possiblement synonyme d’Ornithogalum[4].
+Enfin, Albuca est possiblement synonyme d’Ornithogalum.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Albuca</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Albuca</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plants of the World online (POWO)                (12 juin 2022)[2] liste les 166 espèces suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plants of the World online (POWO)                (12 juin 2022) liste les 166 espèces suivantes :
 Albuca abyssinica Jacq.
 Albuca acuminata Baker
 Albuca adlami Baker
